--- a/src/main/resources/static/excel/payedGatherCreateLimit.xlsx
+++ b/src/main/resources/static/excel/payedGatherCreateLimit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>信用类别</t>
   </si>
@@ -39,24 +39,15 @@
   <si>
     <t>t.receiveTotalInvoice}}</t>
   </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>{{sumInvoice}}</t>
-  </si>
-  <si>
-    <t>{{sumReceiveInvoice}}</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -76,52 +67,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,9 +103,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,6 +125,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -158,47 +172,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +186,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -221,187 +212,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,17 +415,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -446,21 +426,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,15 +454,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -512,150 +468,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -985,13 +976,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1021,17 +1012,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/static/excel/payedGatherCreateLimit.xlsx
+++ b/src/main/resources/static/excel/payedGatherCreateLimit.xlsx
@@ -28,7 +28,7 @@
     <t>已回款</t>
   </si>
   <si>
-    <t>{{$fe:list t t.createLimitPart</t>
+    <t>{{$fe:list t.createLimitPart</t>
   </si>
   <si>
     <t>t.creditLimit</t>
@@ -46,8 +46,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -60,6 +60,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -67,13 +112,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -81,15 +119,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,15 +187,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,84 +202,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -212,31 +212,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,85 +368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,61 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,6 +403,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,15 +463,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -450,6 +474,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,188 +503,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -979,7 +979,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/src/main/resources/static/excel/payedGatherCreateLimit.xlsx
+++ b/src/main/resources/static/excel/payedGatherCreateLimit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11920"/>
+    <workbookView windowWidth="28000" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,8 +46,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -60,14 +60,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,83 +90,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,19 +157,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -212,192 +212,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -407,16 +407,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,15 +444,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,13 +478,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,158 +507,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,36 +997,36 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/main/resources/static/excel/payedGatherCreateLimit.xlsx
+++ b/src/main/resources/static/excel/payedGatherCreateLimit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11900"/>
+    <workbookView windowWidth="28800" windowHeight="11920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -78,6 +78,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,8 +104,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,6 +123,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,43 +143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -159,6 +153,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -166,7 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,24 +196,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,12 +218,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -242,7 +260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,145 +278,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +463,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -507,158 +518,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,7 +997,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/src/main/resources/static/excel/payedGatherCreateLimit.xlsx
+++ b/src/main/resources/static/excel/payedGatherCreateLimit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11920"/>
+    <workbookView windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,10 @@
     <t>t.creditLimit</t>
   </si>
   <si>
-    <t>t.totalInvoice</t>
+    <t>fn:(t.totalInvoice;###.##)</t>
   </si>
   <si>
-    <t>t.receiveTotalInvoice}}</t>
+    <t>fn:(t.receiveTotalInvoice;###.##)}}</t>
   </si>
 </sst>
 </file>
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,6 +81,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -89,10 +97,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,93 +189,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,13 +218,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,163 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,19 +430,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -465,11 +473,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,21 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -518,147 +509,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,7 +997,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/src/main/resources/static/excel/payedGatherCreateLimit.xlsx
+++ b/src/main/resources/static/excel/payedGatherCreateLimit.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ideaProjects\invoice\src\main\resources\static\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880"/>
+    <workbookView windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>信用类别</t>
   </si>
@@ -48,8 +43,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -58,21 +59,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -95,9 +420,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -109,17 +676,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -377,21 +988,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="4" width="12.9464285714286" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +1019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -420,7 +1034,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/excel/payedGatherCreateLimit.xlsx
+++ b/src/main/resources/static/excel/payedGatherCreateLimit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15480"/>
+    <workbookView windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>信用类别</t>
   </si>
   <si>
     <t>信用期限</t>
-  </si>
-  <si>
-    <t>开票量</t>
   </si>
   <si>
     <t>已回款</t>
@@ -34,9 +31,6 @@
     <t>t.creditLimit</t>
   </si>
   <si>
-    <t>fn:(t.totalInvoice;0.00)</t>
-  </si>
-  <si>
     <t>fn:(t.receiveTotalInvoice;0.00)}}</t>
   </si>
 </sst>
@@ -46,8 +40,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -60,7 +54,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,7 +106,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -91,29 +114,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,9 +152,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,29 +183,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -169,35 +192,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,17 +415,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,11 +439,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,156 +517,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,7 +994,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1015,23 +1012,19 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
